--- a/Boom/Excel/DropDesign.xlsx
+++ b/Boom/Excel/DropDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8EC54-5C64-4839-A254-76C48B5931D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55BA046-D0F8-406F-BB7A-F2F30FD7778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15430" yWindow="3470" windowWidth="18640" windowHeight="12350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalLoot" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -231,6 +231,34 @@
   </si>
   <si>
     <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AffinityTags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AffinityMultiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiscGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sack;Box;Bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiscCabinet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallHole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -643,11 +671,11 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="4" max="6" width="18.08203125" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,10 +689,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -677,11 +711,13 @@
       <c r="D2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -694,11 +730,13 @@
       <c r="D3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -711,11 +749,13 @@
       <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -728,11 +768,13 @@
       <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -745,11 +787,13 @@
       <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -762,11 +806,13 @@
       <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -779,11 +825,13 @@
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -796,11 +844,13 @@
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -813,11 +863,13 @@
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -830,11 +882,13 @@
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>200</v>
       </c>
@@ -847,11 +901,13 @@
       <c r="D12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>201</v>
       </c>
@@ -864,11 +920,13 @@
       <c r="D13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>202</v>
       </c>
@@ -881,11 +939,13 @@
       <c r="D14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>203</v>
       </c>
@@ -898,11 +958,13 @@
       <c r="D15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>204</v>
       </c>
@@ -915,11 +977,13 @@
       <c r="D16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -932,11 +996,13 @@
       <c r="D17" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>10</v>
       </c>
@@ -949,11 +1015,13 @@
       <c r="D18" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>20</v>
       </c>
@@ -966,7 +1034,9 @@
       <c r="D19" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -978,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CBA4A8-A8DF-4F43-9DD7-E43A71BC39DA}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -989,11 +1059,11 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.9140625" customWidth="1"/>
+    <col min="4" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,10 +1077,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>200</v>
       </c>
@@ -1023,11 +1099,13 @@
       <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>201</v>
       </c>
@@ -1040,11 +1118,13 @@
       <c r="D3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>202</v>
       </c>
@@ -1057,11 +1137,13 @@
       <c r="D4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>203</v>
       </c>
@@ -1074,11 +1156,13 @@
       <c r="D5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>204</v>
       </c>
@@ -1091,11 +1175,13 @@
       <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>300</v>
       </c>
@@ -1108,11 +1194,13 @@
       <c r="D7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>301</v>
       </c>
@@ -1125,11 +1213,13 @@
       <c r="D8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>302</v>
       </c>
@@ -1142,11 +1232,13 @@
       <c r="D9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>401</v>
       </c>
@@ -1159,11 +1251,13 @@
       <c r="D10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>402</v>
       </c>
@@ -1176,11 +1270,13 @@
       <c r="D11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>403</v>
       </c>
@@ -1193,11 +1289,13 @@
       <c r="D12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -1210,11 +1308,13 @@
       <c r="D13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -1228,10 +1328,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -1244,11 +1350,13 @@
       <c r="D15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -1261,11 +1369,13 @@
       <c r="D16" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>21</v>
       </c>
@@ -1278,11 +1388,13 @@
       <c r="D17" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>22</v>
       </c>
@@ -1295,11 +1407,13 @@
       <c r="D18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1101</v>
       </c>
@@ -1313,10 +1427,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1102</v>
       </c>
@@ -1330,6 +1450,12 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1341,21 +1467,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6E4B2F-969F-4BCA-AD16-B469656D731D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="4" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,10 +1495,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1100</v>
       </c>
@@ -1386,10 +1518,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1101</v>
       </c>
@@ -1403,10 +1541,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1102</v>
       </c>
@@ -1420,6 +1564,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1431,21 +1581,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D492061-F224-4599-BF78-6DADDB7F14F5}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.08203125" customWidth="1"/>
     <col min="2" max="3" width="14.08203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="4" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1459,10 +1609,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1475,11 +1631,13 @@
       <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1492,11 +1650,13 @@
       <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1509,11 +1669,13 @@
       <c r="D4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1526,11 +1688,13 @@
       <c r="D5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1543,11 +1707,13 @@
       <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1560,11 +1726,13 @@
       <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>100</v>
       </c>
@@ -1577,11 +1745,13 @@
       <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>101</v>
       </c>
@@ -1594,11 +1764,13 @@
       <c r="D9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>201</v>
       </c>
@@ -1611,11 +1783,13 @@
       <c r="D10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>202</v>
       </c>
@@ -1628,23 +1802,29 @@
       <c r="D11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1654,20 +1834,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF618B42-FAA1-4A42-8A10-F641E7395736}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="24.9140625" customWidth="1"/>
+    <col min="4" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="24.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,10 +1861,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1697,11 +1883,13 @@
       <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1714,11 +1902,13 @@
       <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1731,11 +1921,13 @@
       <c r="D4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1748,11 +1940,13 @@
       <c r="D5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1765,11 +1959,13 @@
       <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1782,11 +1978,13 @@
       <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>100</v>
       </c>
@@ -1799,11 +1997,13 @@
       <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>101</v>
       </c>
@@ -1816,11 +2016,13 @@
       <c r="D9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>201</v>
       </c>
@@ -1833,11 +2035,13 @@
       <c r="D10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>202</v>
       </c>
@@ -1850,7 +2054,9 @@
       <c r="D11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Boom/Excel/DropDesign.xlsx
+++ b/Boom/Excel/DropDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55BA046-D0F8-406F-BB7A-F2F30FD7778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4F599F-9057-4D73-B939-15092176EEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15430" yWindow="3470" windowWidth="18640" windowHeight="12350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalLoot" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,30 +154,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>伤害宝石Lv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害宝石Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透宝石Lv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透宝石Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共振宝石Lv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共振宝石Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黑曜石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +231,6 @@
   </si>
   <si>
     <t>MiscCabinet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallHole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +298,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -360,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,9 +341,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,10 +652,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1048,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CBA4A8-A8DF-4F43-9DD7-E43A71BC39DA}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1077,10 +1040,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1295,168 +1258,50 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="6" t="s">
+    <row r="13" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
+    <row r="14" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>21</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>22</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>1101</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1102</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6E4B2F-969F-4BCA-AD16-B469656D731D}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1495,10 +1340,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1518,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2">
         <v>0.7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1541,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2">
         <v>0.7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1564,13 +1409,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
         <v>0.8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1609,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1623,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -1634,7 +1479,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1642,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -1653,7 +1498,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1661,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -1672,7 +1517,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -1691,7 +1536,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1699,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -1710,7 +1555,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1718,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -1729,7 +1574,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1737,7 +1582,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
@@ -1748,7 +1593,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1756,7 +1601,7 @@
         <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1767,7 +1612,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1775,7 +1620,7 @@
         <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -1786,7 +1631,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1794,7 +1639,7 @@
         <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -1805,7 +1650,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.3">
@@ -1836,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF618B42-FAA1-4A42-8A10-F641E7395736}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1861,10 +1706,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1875,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -1886,7 +1731,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1894,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -1905,7 +1750,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1913,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -1924,7 +1769,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1932,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -1943,7 +1788,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1951,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -1962,7 +1807,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1970,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -1981,7 +1826,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1989,7 +1834,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
@@ -2000,7 +1845,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2008,7 +1853,7 @@
         <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -2019,7 +1864,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2027,7 +1872,7 @@
         <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -2038,7 +1883,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2046,7 +1891,7 @@
         <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -2057,7 +1902,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/DropDesign.xlsx
+++ b/Boom/Excel/DropDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4F599F-9057-4D73-B939-15092176EEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761C3E9-DDD1-453E-AF30-8EED391451E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11650" yWindow="2380" windowWidth="21060" windowHeight="16040" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalLoot" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="MetaResource" sheetId="3" r:id="rId3"/>
     <sheet name="DebuffChance" sheetId="4" r:id="rId4"/>
     <sheet name="BuffChance" sheetId="5" r:id="rId5"/>
+    <sheet name="草怪掉落01" sheetId="6" r:id="rId6"/>
+    <sheet name="精英掉落01" sheetId="7" r:id="rId7"/>
+    <sheet name="Boss掉落01" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -625,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -669,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>1</v>
@@ -688,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>1</v>
@@ -707,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>1</v>
@@ -726,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>1</v>
@@ -745,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
@@ -764,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
@@ -783,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
@@ -802,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
@@ -821,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
@@ -840,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
@@ -859,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>1</v>
@@ -878,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>1</v>
@@ -897,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="b">
         <v>1</v>
@@ -916,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>1</v>
@@ -935,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>1</v>
@@ -1014,7 +1017,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>1</v>
@@ -1076,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
@@ -1095,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
@@ -1114,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
@@ -1133,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -1152,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="b">
         <v>1</v>
@@ -1171,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4" t="b">
         <v>1</v>
@@ -1190,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="b">
         <v>1</v>
@@ -1209,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5" t="b">
         <v>1</v>
@@ -1228,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5" t="b">
         <v>1</v>
@@ -1247,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5" t="b">
         <v>1</v>
@@ -1266,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>0</v>
@@ -1289,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>0</v>
@@ -1681,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF618B42-FAA1-4A42-8A10-F641E7395736}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -1909,4 +1912,684 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C0F115-19A1-4159-9C1C-D4A2EF206AD7}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="13.08203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>200</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>201</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>202</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>203</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>204</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E250C8FA-4D53-463A-9135-A9CD6BFC2C35}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>201</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>202</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>203</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>204</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>300</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>301</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>302</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199EDC92-2026-4A80-8723-4DAEC2733A47}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="6" width="14.58203125" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>300</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>301</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>302</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>401</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>402</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>403</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Boom/Excel/DropDesign.xlsx
+++ b/Boom/Excel/DropDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761C3E9-DDD1-453E-AF30-8EED391451E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278822AA-4E7D-41A2-B620-6B9B8437964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11650" yWindow="2380" windowWidth="21060" windowHeight="16040" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalLoot" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -234,6 +234,10 @@
   </si>
   <si>
     <t>MiscCabinet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiracleOddity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1919,7 +1923,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1956,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -1975,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -1994,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -2013,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -2032,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -2051,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -2070,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -2089,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -2108,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -2127,7 +2131,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -2146,7 +2150,7 @@
         <v>200</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
@@ -2165,7 +2169,7 @@
         <v>201</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
@@ -2184,7 +2188,7 @@
         <v>202</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
@@ -2203,7 +2207,7 @@
         <v>203</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -2222,7 +2226,7 @@
         <v>204</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
@@ -2247,7 +2251,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2283,7 +2287,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3">
         <v>10</v>
@@ -2302,7 +2306,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -2321,7 +2325,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
@@ -2340,7 +2344,7 @@
         <v>203</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
@@ -2359,7 +2363,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -2378,7 +2382,7 @@
         <v>300</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
@@ -2397,7 +2401,7 @@
         <v>301</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
@@ -2416,7 +2420,7 @@
         <v>302</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -2441,7 +2445,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2479,7 +2483,7 @@
         <v>300</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
@@ -2498,7 +2502,7 @@
         <v>301</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -2517,7 +2521,7 @@
         <v>302</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -2536,7 +2540,7 @@
         <v>401</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -2555,7 +2559,7 @@
         <v>402</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -2574,7 +2578,7 @@
         <v>403</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
